--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/repositories/ban400/data-and-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\ban400\data-and-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2DBD8-68F2-764D-A3B9-E26F87AA2D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E433B8-25E5-4156-98B5-EF1A06A2B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="17520" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>PWC</t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
     <t>Iterations</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>[Git](https://classroom.github.com/a/ojZuXTA9)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,23 +523,23 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -574,16 +574,16 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40</v>
       </c>
@@ -597,10 +597,10 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41</v>
       </c>
@@ -614,16 +614,16 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42</v>
       </c>
@@ -637,16 +637,16 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43</v>
       </c>
@@ -660,16 +660,16 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>44</v>
       </c>
@@ -683,16 +683,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45</v>
       </c>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\ban400\data-and-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nhh\ban400\data-and-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E433B8-25E5-4156-98B5-EF1A06A2B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420D69E-83DE-45FF-83EC-360DAD5B9F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="17520" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -107,15 +107,9 @@
     <t>PWC</t>
   </si>
   <si>
-    <t>Iterations</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Parallel computing</t>
-  </si>
-  <si>
     <t>Many models</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>[Git](https://classroom.github.com/a/ojZuXTA9)</t>
+  </si>
+  <si>
+    <t>[Parallel computing](https://classroom.github.com/a/B2U6ZLFM)</t>
+  </si>
+  <si>
+    <t>[Iterations](https://classroom.github.com/a/mJpP5ERB)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,11 +522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A51BB1D-9DB0-9F4A-9922-FB93B5ED7B31}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -539,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,13 +683,13 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nhh\ban400\data-and-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\ban400\data-and-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420D69E-83DE-45FF-83EC-360DAD5B9F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32AAA8B-FE08-4BFE-910C-38D051482AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="35355" yWindow="135" windowWidth="19110" windowHeight="17145" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,6 @@
     <t>PWC</t>
   </si>
   <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>Many models</t>
-  </si>
-  <si>
     <t>28.09 *08:15 - 10:00* (**Aud J**)</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>[Iterations](https://classroom.github.com/a/mJpP5ERB)</t>
+  </si>
+  <si>
+    <t>[Machine Learning](https://classroom.github.com/a/WRI89Flt)</t>
+  </si>
+  <si>
+    <t>[Many models](https://classroom.github.com/a/04gGD6TJ)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,10 +523,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -539,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,13 +683,13 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\ban400\data-and-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32AAA8B-FE08-4BFE-910C-38D051482AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFCB05E-A1FA-0F4A-87A0-FF61800A928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35355" yWindow="135" windowWidth="19110" windowHeight="17145" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Lecture</t>
   </si>
@@ -62,27 +62,6 @@
     <t>OPMH</t>
   </si>
   <si>
-    <t>26.09 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
-    <t>03.10 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
-    <t>10.10 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
-    <t>24.10 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
-    <t>17.10 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
-    <t>31.10 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
-    <t>07.11 *08:15 - 12:00* (**Aud M**)</t>
-  </si>
-  <si>
     <t>[Git and Github](06-git.qmd)</t>
   </si>
   <si>
@@ -95,70 +74,49 @@
     <t>[Parallel computing](09-parallel-computing.qmd)</t>
   </si>
   <si>
-    <t>Guest lecture by PWC</t>
-  </si>
-  <si>
-    <t>[Many models](10-many-models.qmd)</t>
-  </si>
-  <si>
     <t>[Documentation and deployment](11-documentation-and-deployment.qmd)</t>
   </si>
   <si>
-    <t>PWC</t>
-  </si>
-  <si>
-    <t>28.09 *08:15 - 10:00* (**Aud J**)</t>
-  </si>
-  <si>
-    <t>05.10 *08:15 - 10:00* (**Aud J**)</t>
-  </si>
-  <si>
-    <t>12.10 *08:15 - 10:00* (**Aud J**)</t>
-  </si>
-  <si>
-    <t>19.10 *08:15 - 10:00* (**Aud J**)</t>
-  </si>
-  <si>
-    <t>26.10 *08:15 - 10:00* (**LAB2**)</t>
-  </si>
-  <si>
-    <t>02.11 *08:15 - 10:00* (**LAB2**)</t>
-  </si>
-  <si>
-    <t>09.11 *08:15 - 10:00* (**Aud J**)</t>
-  </si>
-  <si>
-    <t>10.10 (*07:00*)</t>
-  </si>
-  <si>
-    <t>17.10 (*07:00*)</t>
-  </si>
-  <si>
-    <t>24.10 (*07:00*)</t>
-  </si>
-  <si>
-    <t>31.10 (*07:00*)</t>
-  </si>
-  <si>
-    <t>07.11 (*07:00*)</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
-    <t>[Git](https://classroom.github.com/a/ojZuXTA9)</t>
-  </si>
-  <si>
-    <t>[Parallel computing](https://classroom.github.com/a/B2U6ZLFM)</t>
-  </si>
-  <si>
-    <t>[Iterations](https://classroom.github.com/a/mJpP5ERB)</t>
-  </si>
-  <si>
-    <t>[Machine Learning](https://classroom.github.com/a/WRI89Flt)</t>
-  </si>
-  <si>
-    <t>[Many models](https://classroom.github.com/a/04gGD6TJ)</t>
+    <t>01.10 *08:15 - 12:00* (**Aud M**)</t>
+  </si>
+  <si>
+    <t>08.10 *08:15 - 12:00* (**Aud M**)</t>
+  </si>
+  <si>
+    <t>15.10 *08:15 - 12:00* (**Aud M**)</t>
+  </si>
+  <si>
+    <t>22.10 *08:15 - 12:00* (**Aud M**)</t>
+  </si>
+  <si>
+    <t>29.10 *08:15 - 12:00* (**Aud M**)</t>
+  </si>
+  <si>
+    <t>05.11 *08:15 - 12:00* (**Aud M**)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[Many models](10-many-models.qmd) and [Making maps](12-making-maps.qmd)</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Parallel computing</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Many Models/Making maps</t>
   </si>
 </sst>
 </file>
@@ -224,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,26 +478,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A51BB1D-9DB0-9F4A-9922-FB93B5ED7B31}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -560,153 +518,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ban400\data-and-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFCB05E-A1FA-0F4A-87A0-FF61800A928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206825F-C9A3-47F4-89E0-498FAF00BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Lecture</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Many Models/Making maps</t>
+  </si>
+  <si>
+    <t>08.10.2024  (*07:00*)</t>
+  </si>
+  <si>
+    <t>15.10.2024  (*07:00*)</t>
+  </si>
+  <si>
+    <t>22.10.2024  (*07:00*)</t>
+  </si>
+  <si>
+    <t>29.10.2024  (*07:00*)</t>
   </si>
 </sst>
 </file>
@@ -159,11 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,11 +493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A51BB1D-9DB0-9F4A-9922-FB93B5ED7B31}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -495,7 +508,7 @@
     <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -518,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>39</v>
       </c>
@@ -537,11 +550,11 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>41</v>
       </c>
@@ -549,22 +562,22 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>42</v>
       </c>
@@ -572,22 +585,22 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>43</v>
       </c>
@@ -606,11 +619,11 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>44</v>
       </c>
@@ -633,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>45</v>
       </c>
@@ -652,5 +665,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ban400\data-and-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206825F-C9A3-47F4-89E0-498FAF00BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0CB30D-A71D-7446-9F8A-A3A161F1AC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013–2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013–2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013–2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,11 +493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A51BB1D-9DB0-9F4A-9922-FB93B5ED7B31}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -508,7 +508,7 @@
     <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -531,9 +531,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -554,7 +554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>41</v>
       </c>
@@ -577,7 +577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>42</v>
       </c>
@@ -600,7 +600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>43</v>
       </c>
@@ -623,7 +623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>44</v>
       </c>
@@ -646,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>45</v>
       </c>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0CB30D-A71D-7446-9F8A-A3A161F1AC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9575A169-3B5F-A14A-871F-56CB47221B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="43760" yWindow="-940" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Lecture</t>
   </si>
@@ -98,9 +98,6 @@
     <t>05.11 *08:15 - 12:00* (**Aud M**)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>[Many models](10-many-models.qmd) and [Making maps](12-making-maps.qmd)</t>
   </si>
   <si>
@@ -129,6 +126,27 @@
   </si>
   <si>
     <t>29.10.2024  (*07:00*)</t>
+  </si>
+  <si>
+    <t>07.11.2024  (*07:00*)</t>
+  </si>
+  <si>
+    <t>03.10 *08:15 - 10:00* (**LAB2**)</t>
+  </si>
+  <si>
+    <t>10.10 *08:15 - 10:00* (**LAB2**)</t>
+  </si>
+  <si>
+    <t>17.10 *08:15 - 10:00* (**AUD G**)</t>
+  </si>
+  <si>
+    <t>24.10 *08:15 - 10:00* (**LAB2**)</t>
+  </si>
+  <si>
+    <t>31.10 *08:15 - 10:00* (**LAB2**)</t>
+  </si>
+  <si>
+    <t>07:11 *08:15 - 10:00* (**LAB2**)</t>
   </si>
 </sst>
 </file>
@@ -171,10 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -493,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A51BB1D-9DB0-9F4A-9922-FB93B5ED7B31}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -568,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -591,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -614,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,19 +648,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -659,8 +676,8 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
+      <c r="F7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9575A169-3B5F-A14A-871F-56CB47221B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA57C6E-9210-284D-84CC-04F058BF9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43760" yWindow="-940" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
+    <workbookView xWindow="43760" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -101,21 +101,6 @@
     <t>[Many models](10-many-models.qmd) and [Making maps](12-making-maps.qmd)</t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>Parallel computing</t>
-  </si>
-  <si>
-    <t>Machine learning</t>
-  </si>
-  <si>
-    <t>Many Models/Making maps</t>
-  </si>
-  <si>
     <t>08.10.2024  (*07:00*)</t>
   </si>
   <si>
@@ -147,6 +132,21 @@
   </si>
   <si>
     <t>07:11 *08:15 - 10:00* (**LAB2**)</t>
+  </si>
+  <si>
+    <t>[Git](https://classroom.github.com/a/MkPXmUFj)</t>
+  </si>
+  <si>
+    <t>[Machine learning](https://classroom.github.com/a/W8Y8nIDh)</t>
+  </si>
+  <si>
+    <t>[Iterations](https://classroom.github.com/a/axYOETtq)</t>
+  </si>
+  <si>
+    <t>[Parallel computing](https://classroom.github.com/a/_w48Vu_p)</t>
+  </si>
+  <si>
+    <t>[Many Models](https://classroom.github.com/a/oNJOK_ws)/Making maps</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -585,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -608,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -654,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA57C6E-9210-284D-84CC-04F058BF9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B8306-2D27-7348-B4F5-481EBDFDDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43760" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>[Parallel computing](https://classroom.github.com/a/_w48Vu_p)</t>
   </si>
   <si>
-    <t>[Many Models](https://classroom.github.com/a/oNJOK_ws)/Making maps</t>
+    <t>[Many Models](https://classroom.github.com/a/oNJOK_ws)/[Making maps](https://classroom.github.com/a/6hcbzAx5)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-and-files/schedule_part2.xlsx
+++ b/data-and-files/schedule_part2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/work/repos/ban400/data-and-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B8306-2D27-7348-B4F5-481EBDFDDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830A622D-D357-6743-8D53-B6D64BA44F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43760" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{E8DA2206-E191-394A-AC89-C46277787FB9}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>29.10.2024  (*07:00*)</t>
   </si>
   <si>
-    <t>07.11.2024  (*07:00*)</t>
-  </si>
-  <si>
     <t>03.10 *08:15 - 10:00* (**LAB2**)</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>31.10 *08:15 - 10:00* (**LAB2**)</t>
   </si>
   <si>
-    <t>07:11 *08:15 - 10:00* (**LAB2**)</t>
-  </si>
-  <si>
     <t>[Git](https://classroom.github.com/a/MkPXmUFj)</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>[Many Models](https://classroom.github.com/a/oNJOK_ws)/[Making maps](https://classroom.github.com/a/6hcbzAx5)</t>
+  </si>
+  <si>
+    <t>05.11 *08:15 - 10:00* (**LAB2**)</t>
+  </si>
+  <si>
+    <t>12.11.2024  (*07:00*)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>21</v>
@@ -585,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -608,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>23</v>
@@ -631,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>24</v>
@@ -654,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
